--- a/publipostage2/04s3t1g37/liste_essais_cliniques_identifies_04s3t1g37.xlsx
+++ b/publipostage2/04s3t1g37/liste_essais_cliniques_identifies_04s3t1g37.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>status_label</t>
+          <t>statut_label</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">

--- a/publipostage2/04s3t1g37/liste_essais_cliniques_identifies_04s3t1g37.xlsx
+++ b/publipostage2/04s3t1g37/liste_essais_cliniques_identifies_04s3t1g37.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,50 +446,55 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>statut_name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>NCTId</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>eudraCT</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>CTIS</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>completion_year</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>clinical_trial_title</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>acronym</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>results_1y</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>results_3y</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>results</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>intervention_type</t>
         </is>
@@ -508,36 +513,41 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>NCT00934986</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>Study of Natural Killer Cells Function in Untreated Patients With Chronic Lymphocytic Leukemia</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>LLC-NK</t>
         </is>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
       <c r="J2" t="b">
         <v>0</v>
       </c>
       <c r="K2" t="b">
         <v>0</v>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="L2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -556,36 +566,41 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>NCT00908869</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Combination of Continuous Low Doses of Vinorelbine, Cyclophosphamide and Interferon Alpha 2b for Antiangiogenic/Antivascular Effect in Adult Advanced Neoplasm</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>METRO1</t>
         </is>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
       <c r="J3" t="b">
         <v>0</v>
       </c>
       <c r="K3" t="b">
         <v>0</v>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="L3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M3" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -604,36 +619,41 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>NCT00925418</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>Randomized Trial Evaluating the Cryotherapy in the Prevention of Nails Toxicity Induced by Taxotere® in Patient Treated for Breast or Prostate Cancer.</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>CRYO1</t>
         </is>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
       <c r="J4" t="b">
         <v>0</v>
       </c>
       <c r="K4" t="b">
         <v>0</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="L4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -652,36 +672,41 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>NCT00930085</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>Evaluation of Predictive Proteic Profile on Mortality in the Acute Phase of Septic Shock in Cancer Patients</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>PROTEOHSEPS</t>
         </is>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
       <c r="J5" t="b">
         <v>0</v>
       </c>
       <c r="K5" t="b">
         <v>0</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="L5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -700,36 +725,41 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>NCT00918853</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>Prospective Evaluation of the Resection Margins and the Ganglionic Status Using a Quality Standard Resection for Adenocarcinoma of the Head of the Pancreas.</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>MRP</t>
         </is>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
       <c r="J6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" t="b">
         <v>1</v>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="L6" t="b">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -748,36 +778,41 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>NCT00930410</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>Intra-ductal Confocal Endomicroscopy for Characterization of Pancreas and Bile Duct Tumor</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>EMID</t>
         </is>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
       <c r="J7" t="b">
         <v>0</v>
       </c>
       <c r="K7" t="b">
         <v>0</v>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="L7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -796,36 +831,41 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>NCT00894049</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>A Multicenter Prospective Randomized Study Comparing Non Myeloablative (Flu-TBI) and Reduced Intensity (FLU-BU-ATG) Conditioning in Allogenic Transplantation</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>ITAC02-01</t>
         </is>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
       <c r="J8" t="b">
         <v>0</v>
       </c>
       <c r="K8" t="b">
         <v>0</v>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="L8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -844,36 +884,41 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>NCT01521702</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>Adjuvant Gemcitabine Versus NEOadjuvant Gemcitabine/Oxaliplatin Plus Adjuvant Gemcitabine in Resectable PAncreatic Cancer: a Randomized Multicenter Phase III Study</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>NEOPAC</t>
         </is>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
       <c r="J9" t="b">
         <v>0</v>
       </c>
       <c r="K9" t="b">
         <v>0</v>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="L9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M9" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -892,32 +937,37 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>NCT02525250</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>Pilot Study Immunomonitoring NK Cells in Patients With Myeloid Malignancies</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="b">
         <v>0</v>
       </c>
       <c r="K10" t="b">
         <v>0</v>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="L10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M10" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -936,36 +986,41 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>NCT02487836</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>Phase II Trial Evaluating the Efficacy of Laying a Biliary Stent for Producing a Heavy Chemotherapy in Unresectable Pancreatic Adenocarcinomas</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>PROPAC</t>
         </is>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
       <c r="J11" t="b">
         <v>0</v>
       </c>
       <c r="K11" t="b">
         <v>0</v>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="L11" t="b">
+        <v>0</v>
+      </c>
+      <c r="M11" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -984,36 +1039,41 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>NCT01819558</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>Etude Phase I/II d'immunothérapie Par protéine recWT1-A10+AS01B après Greffe allogénique de Cellules Souches</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>ALLO-WT1</t>
         </is>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
       <c r="J12" t="b">
         <v>0</v>
       </c>
       <c r="K12" t="b">
         <v>0</v>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="L12" t="b">
+        <v>0</v>
+      </c>
+      <c r="M12" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -1032,36 +1092,41 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>NCT02174887</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>A Unicentric, Open Label, Mechanism of Action Trial, on the Biological Effect of Nab-paclitaxel Combined to Gemcitabine, in Patients With Metastatic Pancreatic Adenocarcinoma</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>MOAnab1</t>
         </is>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
       <c r="J13" t="b">
         <v>0</v>
       </c>
       <c r="K13" t="b">
         <v>0</v>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="L13" t="b">
+        <v>0</v>
+      </c>
+      <c r="M13" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1080,32 +1145,37 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>NCT01499537</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>Prospective Randomized Study of PTC and EUS-guided Drainage of the Bile Duct in Patients With Malignant or Post-operative Jaundice After Failure or Impossibility to Perform Endoscopic Retrograde Cholangiography</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="b">
         <v>0</v>
       </c>
       <c r="K14" t="b">
         <v>0</v>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="L14" t="b">
+        <v>0</v>
+      </c>
+      <c r="M14" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -1124,36 +1194,41 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>NCT02526134</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>Placing Trust in Endoscopic Ultrasonography: Impact on Planning Conformal Radiotherapy of Cancer of the Esophagus and Rectum</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>FIDUCOR</t>
         </is>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
       <c r="J15" t="b">
         <v>0</v>
       </c>
       <c r="K15" t="b">
         <v>0</v>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="L15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M15" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -1170,34 +1245,39 @@
           <t>noir</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr">
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
         <is>
           <t>2009-014773-40</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>Essai de phase II de preuve du concept : Evaluation de l’activité anti-cellules souches cancéreuses du bevacizumab administré en combinaison à la chimiothérapie néoadjuvante dans les cancers du sein</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="b">
         <v>0</v>
       </c>
       <c r="K16" t="b">
         <v>0</v>
       </c>
-      <c r="L16" t="inlineStr"/>
+      <c r="L16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1212,36 +1292,41 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>NCT01692873</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>Research for Prognostic and Predictive Biomarkers of Therapeutic Response in Pancreatic Tumors - PACAomics / IPC 2011-004</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>PACAomics</t>
         </is>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
       <c r="J17" t="b">
         <v>0</v>
       </c>
       <c r="K17" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17" t="b">
         <v>1</v>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="M17" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -1260,36 +1345,41 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>NCT01190345</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>Phase II" Proof of Concept " Trial Evaluating Anti Cancer Stem Cell Activity of Pre-operative Bevacizumab in Combination With Chemotherapy in Breast Cancer</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>AVASTEM</t>
         </is>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
       <c r="J18" t="b">
         <v>0</v>
       </c>
       <c r="K18" t="b">
         <v>0</v>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="L18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M18" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1308,32 +1398,37 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>NCT01942980</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>Double-blind Randomized Multicenter Phase III Study Evaluation of the Efficacy of Hippocampal Avoidance on the Cognitive Toxicity of Whole-brain Radiation Therapy After Surgical Resection of Single Brain Metastasis of Breast Cancer.</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="b">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="b">
         <v>0</v>
       </c>
       <c r="K19" t="b">
         <v>0</v>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="L19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M19" t="inlineStr">
         <is>
           <t>RADIATION</t>
         </is>
@@ -1352,36 +1447,41 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>NCT01853358</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>Phase I of Infusion of Selected Donor NK Cells After HLA Identical Allogeneic Stem Cell Transplantation Prepared With Reduced Intensity Conditioning - DLI-NK/IPC 2012-003</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>DLI-NK</t>
         </is>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
-      </c>
       <c r="J20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" t="b">
         <v>1</v>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="L20" t="b">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -1400,36 +1500,41 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>NCT03686592</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>Psychological Effect of the pancréatectomy: a Feeling of Strangeness</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>REPPSE</t>
         </is>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
-      </c>
       <c r="J21" t="b">
         <v>0</v>
       </c>
       <c r="K21" t="b">
         <v>0</v>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="L21" t="b">
+        <v>0</v>
+      </c>
+      <c r="M21" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1448,36 +1553,41 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>NCT01939327</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>A Phase II Single-arm, Open-label Study to Evaluate the Safety and Efficacy of Combination Lenalidomide (Revlimid®) With Rituximab in Subjets With Relapsed or Refractory Diffuse Large b Cell Non-Hodgkin's Lymphoma.</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>R2</t>
         </is>
       </c>
-      <c r="I22" t="b">
-        <v>0</v>
-      </c>
       <c r="J22" t="b">
         <v>0</v>
       </c>
       <c r="K22" t="b">
         <v>0</v>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="L22" t="b">
+        <v>0</v>
+      </c>
+      <c r="M22" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1496,36 +1606,41 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>NCT02483325</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr">
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>Phase II Study Evaluating the Efficacy of Allogeneic Transplant Conditioning With Adaptive Dose Busulfan Intravenous (Busilvex®) in Patients at High Risk of Carrying Blood Diseases</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>BX-PK</t>
         </is>
       </c>
-      <c r="I23" t="b">
-        <v>0</v>
-      </c>
       <c r="J23" t="b">
         <v>0</v>
       </c>
       <c r="K23" t="b">
         <v>0</v>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="L23" t="b">
+        <v>0</v>
+      </c>
+      <c r="M23" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1542,39 +1657,44 @@
           <t>noir</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr">
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
         <is>
           <t>2014-000758-12</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>Study of pharmacokinetics of intravenous busulfan (Busilvex ®) in the conditioning allogeneic transplantation in patients with high-risk hematological disease. 
  Etude de pharmacocinétique du Busulfan intra-veineux (Busilvex®) dans le conditionnement d’une greffe allogénique chez des patients à haut risque porteurs d’hémopathie.</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>BX-PK-IPC2013-016</t>
         </is>
       </c>
-      <c r="I24" t="b">
-        <v>0</v>
-      </c>
       <c r="J24" t="b">
         <v>0</v>
       </c>
       <c r="K24" t="b">
         <v>0</v>
       </c>
-      <c r="L24" t="inlineStr"/>
+      <c r="L24" t="b">
+        <v>0</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1589,28 +1709,33 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>NCT02623309</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr">
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
-      <c r="I25" t="b">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="b">
         <v>0</v>
       </c>
       <c r="K25" t="b">
         <v>0</v>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="L25" t="b">
+        <v>0</v>
+      </c>
+      <c r="M25" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -1629,36 +1754,41 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>NCT04401046</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr">
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>COVID-19 EPIDEMIC Reorganisation of Cancer Patient Care: Self- Evaluation of Potential Post-traumatic Stress Disorder</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>COVID-TRAUMA</t>
         </is>
       </c>
-      <c r="I26" t="b">
-        <v>0</v>
-      </c>
       <c r="J26" t="b">
         <v>0</v>
       </c>
       <c r="K26" t="b">
         <v>0</v>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="L26" t="b">
+        <v>0</v>
+      </c>
+      <c r="M26" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1677,36 +1807,41 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>NCT03595800</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr">
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>Extension of a Phase III Randomized Study of Allogeneic Hematopoietic Stem Cell Transplantation From One Haplotype Mismatch Related Donor or From an Unrelated Donor to Younger Patients Eligible for Reduced-intensity Conditioning Regimen-HaploMUD-RIC-01</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>HaploMUD-RIC</t>
         </is>
       </c>
-      <c r="I27" t="b">
-        <v>0</v>
-      </c>
       <c r="J27" t="b">
         <v>0</v>
       </c>
       <c r="K27" t="b">
         <v>0</v>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="L27" t="b">
+        <v>0</v>
+      </c>
+      <c r="M27" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -1725,36 +1860,41 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>NCT03679338</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr">
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>Prospective Evaluation of the Ablation Therapy With Bipolar Radio Frequency for Nonresectable Bile Duct Cancer</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>RFA-BILIAIRE</t>
         </is>
       </c>
-      <c r="I28" t="b">
-        <v>0</v>
-      </c>
       <c r="J28" t="b">
         <v>0</v>
       </c>
       <c r="K28" t="b">
         <v>0</v>
       </c>
-      <c r="L28" t="inlineStr">
+      <c r="L28" t="b">
+        <v>0</v>
+      </c>
+      <c r="M28" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -1773,36 +1913,41 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>NCT04112654</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr">
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>Prospective Randomized Evaluation of the Contribution of Low-pressure Intra-abdominal Insufflation for Laparoscopic Colic Resection</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>LoPreCol</t>
         </is>
       </c>
-      <c r="I29" t="b">
-        <v>0</v>
-      </c>
       <c r="J29" t="b">
         <v>0</v>
       </c>
       <c r="K29" t="b">
         <v>0</v>
       </c>
-      <c r="L29" t="inlineStr">
+      <c r="L29" t="b">
+        <v>0</v>
+      </c>
+      <c r="M29" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -1821,36 +1966,41 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>NCT03961893</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr">
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>Panoramic Screening by Complete Colonoscopy in the Management of Colorectal Adenomas</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>G-EYE-ADR</t>
         </is>
       </c>
-      <c r="I30" t="b">
-        <v>0</v>
-      </c>
       <c r="J30" t="b">
         <v>0</v>
       </c>
       <c r="K30" t="b">
         <v>0</v>
       </c>
-      <c r="L30" t="inlineStr">
+      <c r="L30" t="b">
+        <v>0</v>
+      </c>
+      <c r="M30" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -1869,32 +2019,37 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>NCT02860793</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr">
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
         <is>
           <t>Role of PTK-7 in Acute Myeloid Leukemias: Impact of PTK7 Serum Marker and ex Vivo Studies to Decipher the Role of PTK7</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>LAM-PTK7</t>
         </is>
       </c>
-      <c r="I31" t="b">
-        <v>0</v>
-      </c>
       <c r="J31" t="b">
         <v>0</v>
       </c>
       <c r="K31" t="b">
         <v>0</v>
       </c>
-      <c r="L31" t="inlineStr">
+      <c r="L31" t="b">
+        <v>0</v>
+      </c>
+      <c r="M31" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1913,28 +2068,33 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
           <t>NCT00840684</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr">
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
         <is>
           <t>A PHASE I-II MULTICENTER STUDY OF THE CLORETAZINE-DAUNORUBICIN-ARACYTINE COMBINATION FOR THE TREATMENT OF ACUTE MYELOID LEUKEMIA (AML) WITH UNFAVORABLE CYTOGENETICS</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="b">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="b">
         <v>0</v>
       </c>
       <c r="K32" t="b">
         <v>0</v>
       </c>
-      <c r="L32" t="inlineStr">
+      <c r="L32" t="b">
+        <v>0</v>
+      </c>
+      <c r="M32" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -1953,28 +2113,33 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
           <t>NCT00540956</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr">
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
         <is>
           <t>Descriptive Study Evaluating the Presence and Function of Natural Killer Cells in Elderly Patients With Acute Myeloid Leukemia in First Remission.</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="b">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="b">
         <v>0</v>
       </c>
       <c r="K33" t="b">
         <v>0</v>
       </c>
-      <c r="L33" t="inlineStr">
+      <c r="L33" t="b">
+        <v>0</v>
+      </c>
+      <c r="M33" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1993,28 +2158,33 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>NCT00963521</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr">
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
         <is>
           <t>Pilot Study of Therapeutic Vaccination by Leukemic Blasts in Vitro Differentiated Dendritic Cells From Patients With Acute Myelogenous Leukemia in Complete Remission</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="b">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="b">
         <v>0</v>
       </c>
       <c r="K34" t="b">
         <v>0</v>
       </c>
-      <c r="L34" t="inlineStr">
+      <c r="L34" t="b">
+        <v>0</v>
+      </c>
+      <c r="M34" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -2033,28 +2203,33 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
           <t>NCT00802568</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr">
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
         <is>
           <t>Pilot Study of Allogeneic Hematopoietic Stem Cell Transplantation Following Reduced Intensity Conditioning in Treating Patients With Multiple Myeloma</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="b">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="b">
         <v>0</v>
       </c>
       <c r="K35" t="b">
         <v>0</v>
       </c>
-      <c r="L35" t="inlineStr">
+      <c r="L35" t="b">
+        <v>0</v>
+      </c>
+      <c r="M35" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -2073,28 +2248,33 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
           <t>NCT00806767</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr">
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
         <is>
           <t>Phase II Study of Allogeneic Transplant of Hematopoietic Stem Cells From a Compatible Family Donor in the Treatment of Patients Over 55 Years With Hematological Malignancies</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="b">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="b">
         <v>0</v>
       </c>
       <c r="K36" t="b">
         <v>0</v>
       </c>
-      <c r="L36" t="inlineStr">
+      <c r="L36" t="b">
+        <v>0</v>
+      </c>
+      <c r="M36" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>

--- a/publipostage2/04s3t1g37/liste_essais_cliniques_identifies_04s3t1g37.xlsx
+++ b/publipostage2/04s3t1g37/liste_essais_cliniques_identifies_04s3t1g37.xlsx
@@ -55,16 +55,16 @@
     <t>intervention_type</t>
   </si>
   <si>
-    <t>⬛</t>
-  </si>
-  <si>
-    <t>🟧</t>
-  </si>
-  <si>
-    <t>🟥</t>
-  </si>
-  <si>
-    <t>noir</t>
+    <t>📘</t>
+  </si>
+  <si>
+    <t>📙</t>
+  </si>
+  <si>
+    <t>📕</t>
+  </si>
+  <si>
+    <t>bleu</t>
   </si>
   <si>
     <t>orange</t>

--- a/publipostage2/04s3t1g37/liste_essais_cliniques_identifies_04s3t1g37.xlsx
+++ b/publipostage2/04s3t1g37/liste_essais_cliniques_identifies_04s3t1g37.xlsx
@@ -55,13 +55,13 @@
     <t>intervention_type</t>
   </si>
   <si>
-    <t>📘</t>
-  </si>
-  <si>
-    <t>📙</t>
-  </si>
-  <si>
-    <t>📕</t>
+    <t>⚠️</t>
+  </si>
+  <si>
+    <t>+3</t>
+  </si>
+  <si>
+    <t>-3</t>
   </si>
   <si>
     <t>bleu</t>

--- a/publipostage2/04s3t1g37/liste_essais_cliniques_identifies_04s3t1g37.xlsx
+++ b/publipostage2/04s3t1g37/liste_essais_cliniques_identifies_04s3t1g37.xlsx
@@ -64,7 +64,7 @@
     <t>-3</t>
   </si>
   <si>
-    <t>bleu</t>
+    <t>noir</t>
   </si>
   <si>
     <t>orange</t>
@@ -73,13 +73,13 @@
     <t>rouge</t>
   </si>
   <si>
-    <t>pas de résultat ni de publication</t>
-  </si>
-  <si>
-    <t>résultat et / ou publication posté dans les 36 mois</t>
-  </si>
-  <si>
-    <t>résultat et / ou publication posté</t>
+    <t>pas de résultat postés ni publiés</t>
+  </si>
+  <si>
+    <t>résultat postés ou publiés dans les 36 mois</t>
+  </si>
+  <si>
+    <t>résultat postés ou publiés</t>
   </si>
   <si>
     <t>NCT00934986</t>

--- a/publipostage2/04s3t1g37/liste_essais_cliniques_identifies_04s3t1g37.xlsx
+++ b/publipostage2/04s3t1g37/liste_essais_cliniques_identifies_04s3t1g37.xlsx
@@ -64,30 +64,30 @@
     <t>NCT00934986</t>
   </si>
   <si>
+    <t>NCT00930085</t>
+  </si>
+  <si>
+    <t>NCT00925418</t>
+  </si>
+  <si>
     <t>NCT00908869</t>
   </si>
   <si>
-    <t>NCT00925418</t>
-  </si>
-  <si>
-    <t>NCT00930085</t>
+    <t>NCT00930410</t>
   </si>
   <si>
     <t>NCT00918853</t>
   </si>
   <si>
-    <t>NCT00930410</t>
-  </si>
-  <si>
     <t>NCT00894049</t>
   </si>
   <si>
+    <t>NCT02525250</t>
+  </si>
+  <si>
     <t>NCT01521702</t>
   </si>
   <si>
-    <t>NCT02525250</t>
-  </si>
-  <si>
     <t>NCT02487836</t>
   </si>
   <si>
@@ -100,18 +100,18 @@
     <t>NCT01499537</t>
   </si>
   <si>
+    <t>NCT01942980</t>
+  </si>
+  <si>
+    <t>NCT01190345</t>
+  </si>
+  <si>
+    <t>NCT01692873</t>
+  </si>
+  <si>
     <t>NCT02526134</t>
   </si>
   <si>
-    <t>NCT01692873</t>
-  </si>
-  <si>
-    <t>NCT01190345</t>
-  </si>
-  <si>
-    <t>NCT01942980</t>
-  </si>
-  <si>
     <t>NCT01853358</t>
   </si>
   <si>
@@ -136,10 +136,16 @@
     <t>NCT03679338</t>
   </si>
   <si>
+    <t>NCT03961893</t>
+  </si>
+  <si>
     <t>NCT04112654</t>
   </si>
   <si>
-    <t>NCT03961893</t>
+    <t>NCT00963521</t>
+  </si>
+  <si>
+    <t>NCT00540956</t>
   </si>
   <si>
     <t>NCT02860793</t>
@@ -148,12 +154,6 @@
     <t>NCT00840684</t>
   </si>
   <si>
-    <t>NCT00540956</t>
-  </si>
-  <si>
-    <t>NCT00963521</t>
-  </si>
-  <si>
     <t>NCT00802568</t>
   </si>
   <si>
@@ -208,30 +208,30 @@
     <t>Study of Natural Killer Cells Function in Untreated Patients With Chronic Lymphocytic Leukemia</t>
   </si>
   <si>
+    <t>Evaluation of Predictive Proteic Profile on Mortality in the Acute Phase of Septic Shock in Cancer Patients</t>
+  </si>
+  <si>
+    <t>Randomized Trial Evaluating the Cryotherapy in the Prevention of Nails Toxicity Induced by Taxotere® in Patient Treated for Breast or Prostate Cancer.</t>
+  </si>
+  <si>
     <t>Combination of Continuous Low Doses of Vinorelbine, Cyclophosphamide and Interferon Alpha 2b for Antiangiogenic/Antivascular Effect in Adult Advanced Neoplasm</t>
   </si>
   <si>
-    <t>Randomized Trial Evaluating the Cryotherapy in the Prevention of Nails Toxicity Induced by Taxotere® in Patient Treated for Breast or Prostate Cancer.</t>
-  </si>
-  <si>
-    <t>Evaluation of Predictive Proteic Profile on Mortality in the Acute Phase of Septic Shock in Cancer Patients</t>
+    <t>Intra-ductal Confocal Endomicroscopy for Characterization of Pancreas and Bile Duct Tumor</t>
   </si>
   <si>
     <t>Prospective Evaluation of the Resection Margins and the Ganglionic Status Using a Quality Standard Resection for Adenocarcinoma of the Head of the Pancreas.</t>
   </si>
   <si>
-    <t>Intra-ductal Confocal Endomicroscopy for Characterization of Pancreas and Bile Duct Tumor</t>
-  </si>
-  <si>
     <t>A Multicenter Prospective Randomized Study Comparing Non Myeloablative (Flu-TBI) and Reduced Intensity (FLU-BU-ATG) Conditioning in Allogenic Transplantation</t>
   </si>
   <si>
+    <t>Pilot Study Immunomonitoring NK Cells in Patients With Myeloid Malignancies</t>
+  </si>
+  <si>
     <t>Adjuvant Gemcitabine Versus NEOadjuvant Gemcitabine/Oxaliplatin Plus Adjuvant Gemcitabine in Resectable PAncreatic Cancer: a Randomized Multicenter Phase III Study</t>
   </si>
   <si>
-    <t>Pilot Study Immunomonitoring NK Cells in Patients With Myeloid Malignancies</t>
-  </si>
-  <si>
     <t>Phase II Trial Evaluating the Efficacy of Laying a Biliary Stent for Producing a Heavy Chemotherapy in Unresectable Pancreatic Adenocarcinomas</t>
   </si>
   <si>
@@ -244,21 +244,21 @@
     <t>Prospective Randomized Study of PTC and EUS-guided Drainage of the Bile Duct in Patients With Malignant or Post-operative Jaundice After Failure or Impossibility to Perform Endoscopic Retrograde Cholangiography</t>
   </si>
   <si>
+    <t>Essai de phase II de preuve du concept : Evaluation de l’activité anti-cellules souches cancéreuses du bevacizumab administré en combinaison à la chimiothérapie néoadjuvante dans les cancers du sein</t>
+  </si>
+  <si>
+    <t>Double-blind Randomized Multicenter Phase III Study Evaluation of the Efficacy of Hippocampal Avoidance on the Cognitive Toxicity of Whole-brain Radiation Therapy After Surgical Resection of Single Brain Metastasis of Breast Cancer.</t>
+  </si>
+  <si>
+    <t>Phase II" Proof of Concept " Trial Evaluating Anti Cancer Stem Cell Activity of Pre-operative Bevacizumab in Combination With Chemotherapy in Breast Cancer</t>
+  </si>
+  <si>
+    <t>Research for Prognostic and Predictive Biomarkers of Therapeutic Response in Pancreatic Tumors - PACAomics / IPC 2011-004</t>
+  </si>
+  <si>
     <t>Placing Trust in Endoscopic Ultrasonography: Impact on Planning Conformal Radiotherapy of Cancer of the Esophagus and Rectum</t>
   </si>
   <si>
-    <t>Essai de phase II de preuve du concept : Evaluation de l’activité anti-cellules souches cancéreuses du bevacizumab administré en combinaison à la chimiothérapie néoadjuvante dans les cancers du sein</t>
-  </si>
-  <si>
-    <t>Research for Prognostic and Predictive Biomarkers of Therapeutic Response in Pancreatic Tumors - PACAomics / IPC 2011-004</t>
-  </si>
-  <si>
-    <t>Phase II" Proof of Concept " Trial Evaluating Anti Cancer Stem Cell Activity of Pre-operative Bevacizumab in Combination With Chemotherapy in Breast Cancer</t>
-  </si>
-  <si>
-    <t>Double-blind Randomized Multicenter Phase III Study Evaluation of the Efficacy of Hippocampal Avoidance on the Cognitive Toxicity of Whole-brain Radiation Therapy After Surgical Resection of Single Brain Metastasis of Breast Cancer.</t>
-  </si>
-  <si>
     <t>Phase I of Infusion of Selected Donor NK Cells After HLA Identical Allogeneic Stem Cell Transplantation Prepared With Reduced Intensity Conditioning - DLI-NK/IPC 2012-003</t>
   </si>
   <si>
@@ -266,15 +266,15 @@
   </si>
   <si>
     <t>A Phase II Single-arm, Open-label Study to Evaluate the Safety and Efficacy of Combination Lenalidomide (Revlimid®) With Rituximab in Subjets With Relapsed or Refractory Diffuse Large b Cell Non-Hodgkin's Lymphoma.</t>
-  </si>
-  <si>
-    <t>Phase II Study Evaluating the Efficacy of Allogeneic Transplant Conditioning With Adaptive Dose Busulfan Intravenous (Busilvex®) in Patients at High Risk of Carrying Blood Diseases</t>
   </si>
   <si>
     <t>Study of pharmacokinetics of intravenous busulfan (Busilvex ®) in the conditioning allogeneic transplantation in patients with high-risk hematological disease. 
  Etude de pharmacocinétique du Busulfan intra-veineux (Busilvex®) dans le conditionnement d’une greffe allogénique chez des patients à haut risque porteurs d’hémopathie.</t>
   </si>
   <si>
+    <t>Phase II Study Evaluating the Efficacy of Allogeneic Transplant Conditioning With Adaptive Dose Busulfan Intravenous (Busilvex®) in Patients at High Risk of Carrying Blood Diseases</t>
+  </si>
+  <si>
     <t>COVID-19 EPIDEMIC Reorganisation of Cancer Patient Care: Self- Evaluation of Potential Post-traumatic Stress Disorder</t>
   </si>
   <si>
@@ -284,10 +284,16 @@
     <t>Prospective Evaluation of the Ablation Therapy With Bipolar Radio Frequency for Nonresectable Bile Duct Cancer</t>
   </si>
   <si>
+    <t>Panoramic Screening by Complete Colonoscopy in the Management of Colorectal Adenomas</t>
+  </si>
+  <si>
     <t>Prospective Randomized Evaluation of the Contribution of Low-pressure Intra-abdominal Insufflation for Laparoscopic Colic Resection</t>
   </si>
   <si>
-    <t>Panoramic Screening by Complete Colonoscopy in the Management of Colorectal Adenomas</t>
+    <t>Pilot Study of Therapeutic Vaccination by Leukemic Blasts in Vitro Differentiated Dendritic Cells From Patients With Acute Myelogenous Leukemia in Complete Remission</t>
+  </si>
+  <si>
+    <t>Descriptive Study Evaluating the Presence and Function of Natural Killer Cells in Elderly Patients With Acute Myeloid Leukemia in First Remission.</t>
   </si>
   <si>
     <t>Role of PTK-7 in Acute Myeloid Leukemias: Impact of PTK7 Serum Marker and ex Vivo Studies to Decipher the Role of PTK7</t>
@@ -296,12 +302,6 @@
     <t>A PHASE I-II MULTICENTER STUDY OF THE CLORETAZINE-DAUNORUBICIN-ARACYTINE COMBINATION FOR THE TREATMENT OF ACUTE MYELOID LEUKEMIA (AML) WITH UNFAVORABLE CYTOGENETICS</t>
   </si>
   <si>
-    <t>Descriptive Study Evaluating the Presence and Function of Natural Killer Cells in Elderly Patients With Acute Myeloid Leukemia in First Remission.</t>
-  </si>
-  <si>
-    <t>Pilot Study of Therapeutic Vaccination by Leukemic Blasts in Vitro Differentiated Dendritic Cells From Patients With Acute Myelogenous Leukemia in Complete Remission</t>
-  </si>
-  <si>
     <t>Pilot Study of Allogeneic Hematopoietic Stem Cell Transplantation Following Reduced Intensity Conditioning in Treating Patients With Multiple Myeloma</t>
   </si>
   <si>
@@ -311,21 +311,21 @@
     <t>LLC-NK</t>
   </si>
   <si>
+    <t>PROTEOHSEPS</t>
+  </si>
+  <si>
+    <t>CRYO1</t>
+  </si>
+  <si>
     <t>METRO1</t>
   </si>
   <si>
-    <t>CRYO1</t>
-  </si>
-  <si>
-    <t>PROTEOHSEPS</t>
+    <t>EMID</t>
   </si>
   <si>
     <t>MRP</t>
   </si>
   <si>
-    <t>EMID</t>
-  </si>
-  <si>
     <t>ITAC02-01</t>
   </si>
   <si>
@@ -341,15 +341,15 @@
     <t>MOAnab1</t>
   </si>
   <si>
+    <t>AVASTEM</t>
+  </si>
+  <si>
+    <t>PACAomics</t>
+  </si>
+  <si>
     <t>FIDUCOR</t>
   </si>
   <si>
-    <t>PACAomics</t>
-  </si>
-  <si>
-    <t>AVASTEM</t>
-  </si>
-  <si>
     <t>DLI-NK</t>
   </si>
   <si>
@@ -359,12 +359,12 @@
     <t>R2</t>
   </si>
   <si>
+    <t>BX-PK-IPC2013-016</t>
+  </si>
+  <si>
     <t>BX-PK</t>
   </si>
   <si>
-    <t>BX-PK-IPC2013-016</t>
-  </si>
-  <si>
     <t>COVID-TRAUMA</t>
   </si>
   <si>
@@ -374,22 +374,22 @@
     <t>RFA-BILIAIRE</t>
   </si>
   <si>
+    <t>G-EYE-ADR</t>
+  </si>
+  <si>
     <t>LoPreCol</t>
   </si>
   <si>
-    <t>G-EYE-ADR</t>
-  </si>
-  <si>
     <t>LAM-PTK7</t>
   </si>
   <si>
     <t>OTHER</t>
   </si>
   <si>
+    <t>PROCEDURE</t>
+  </si>
+  <si>
     <t>DRUG</t>
-  </si>
-  <si>
-    <t>PROCEDURE</t>
   </si>
   <si>
     <t>DEVICE</t>
@@ -834,7 +834,7 @@
         <v>98</v>
       </c>
       <c r="I3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -857,7 +857,7 @@
         <v>99</v>
       </c>
       <c r="I4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -880,15 +880,15 @@
         <v>100</v>
       </c>
       <c r="I5" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
@@ -903,15 +903,15 @@
         <v>101</v>
       </c>
       <c r="I6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
@@ -926,7 +926,7 @@
         <v>102</v>
       </c>
       <c r="I7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -949,7 +949,7 @@
         <v>103</v>
       </c>
       <c r="I8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -968,11 +968,8 @@
       <c r="G9" t="s">
         <v>70</v>
       </c>
-      <c r="H9" t="s">
-        <v>104</v>
-      </c>
       <c r="I9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -991,8 +988,11 @@
       <c r="G10" t="s">
         <v>71</v>
       </c>
+      <c r="H10" t="s">
+        <v>104</v>
+      </c>
       <c r="I10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1061,7 +1061,7 @@
         <v>107</v>
       </c>
       <c r="I13" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1091,8 +1091,8 @@
       <c r="B15" t="s">
         <v>12</v>
       </c>
-      <c r="C15" t="s">
-        <v>28</v>
+      <c r="D15" t="s">
+        <v>48</v>
       </c>
       <c r="F15" t="s">
         <v>56</v>
@@ -1100,12 +1100,6 @@
       <c r="G15" t="s">
         <v>76</v>
       </c>
-      <c r="H15" t="s">
-        <v>108</v>
-      </c>
-      <c r="I15" t="s">
-        <v>125</v>
-      </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
@@ -1114,8 +1108,8 @@
       <c r="B16" t="s">
         <v>12</v>
       </c>
-      <c r="D16" t="s">
-        <v>48</v>
+      <c r="C16" t="s">
+        <v>28</v>
       </c>
       <c r="F16" t="s">
         <v>56</v>
@@ -1123,13 +1117,16 @@
       <c r="G16" t="s">
         <v>77</v>
       </c>
+      <c r="I16" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
         <v>29</v>
@@ -1141,7 +1138,7 @@
         <v>78</v>
       </c>
       <c r="H17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I17" t="s">
         <v>124</v>
@@ -1149,10 +1146,10 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C18" t="s">
         <v>30</v>
@@ -1164,7 +1161,7 @@
         <v>79</v>
       </c>
       <c r="H18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I18" t="s">
         <v>123</v>
@@ -1186,8 +1183,11 @@
       <c r="G19" t="s">
         <v>80</v>
       </c>
+      <c r="H19" t="s">
+        <v>110</v>
+      </c>
       <c r="I19" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1256,7 +1256,7 @@
         <v>113</v>
       </c>
       <c r="I22" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1266,8 +1266,8 @@
       <c r="B23" t="s">
         <v>12</v>
       </c>
-      <c r="C23" t="s">
-        <v>35</v>
+      <c r="D23" t="s">
+        <v>49</v>
       </c>
       <c r="F23" t="s">
         <v>59</v>
@@ -1278,9 +1278,6 @@
       <c r="H23" t="s">
         <v>114</v>
       </c>
-      <c r="I23" t="s">
-        <v>123</v>
-      </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
@@ -1289,8 +1286,8 @@
       <c r="B24" t="s">
         <v>12</v>
       </c>
-      <c r="D24" t="s">
-        <v>49</v>
+      <c r="C24" t="s">
+        <v>35</v>
       </c>
       <c r="F24" t="s">
         <v>59</v>
@@ -1301,6 +1298,9 @@
       <c r="H24" t="s">
         <v>115</v>
       </c>
+      <c r="I24" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
@@ -1362,7 +1362,7 @@
         <v>117</v>
       </c>
       <c r="I27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1408,7 +1408,7 @@
         <v>119</v>
       </c>
       <c r="I29" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1431,7 +1431,7 @@
         <v>120</v>
       </c>
       <c r="I30" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1447,11 +1447,8 @@
       <c r="G31" t="s">
         <v>91</v>
       </c>
-      <c r="H31" t="s">
-        <v>121</v>
-      </c>
       <c r="I31" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1484,8 +1481,11 @@
       <c r="G33" t="s">
         <v>93</v>
       </c>
+      <c r="H33" t="s">
+        <v>121</v>
+      </c>
       <c r="I33" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1502,7 +1502,7 @@
         <v>94</v>
       </c>
       <c r="I34" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35" spans="1:9">

--- a/publipostage2/04s3t1g37/liste_essais_cliniques_identifies_04s3t1g37.xlsx
+++ b/publipostage2/04s3t1g37/liste_essais_cliniques_identifies_04s3t1g37.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="132">
   <si>
     <t>statut</t>
   </si>
@@ -52,13 +52,13 @@
     <t>3</t>
   </si>
   <si>
-    <t>4: pas de résultats postés ni publiés</t>
-  </si>
-  <si>
-    <t>2: résultats postés ou publiés entre 12 et 36 mois</t>
-  </si>
-  <si>
-    <t>3: résultats postés ou publiés après les 36 mois</t>
+    <t>4 : pas de résultats postés ni publiés</t>
+  </si>
+  <si>
+    <t>2 : résultats postés ou publiés entre 12 et 36 mois</t>
+  </si>
+  <si>
+    <t>3 : résultats postés ou publiés après les 36 mois</t>
   </si>
   <si>
     <t>NCT00934986</t>
@@ -67,30 +67,30 @@
     <t>NCT00930085</t>
   </si>
   <si>
+    <t>NCT00908869</t>
+  </si>
+  <si>
     <t>NCT00925418</t>
   </si>
   <si>
-    <t>NCT00908869</t>
+    <t>NCT00918853</t>
   </si>
   <si>
     <t>NCT00930410</t>
   </si>
   <si>
-    <t>NCT00918853</t>
-  </si>
-  <si>
     <t>NCT00894049</t>
   </si>
   <si>
+    <t>NCT01521702</t>
+  </si>
+  <si>
+    <t>NCT02487836</t>
+  </si>
+  <si>
     <t>NCT02525250</t>
   </si>
   <si>
-    <t>NCT01521702</t>
-  </si>
-  <si>
-    <t>NCT02487836</t>
-  </si>
-  <si>
     <t>NCT01819558</t>
   </si>
   <si>
@@ -106,24 +106,24 @@
     <t>NCT01190345</t>
   </si>
   <si>
+    <t>NCT02526134</t>
+  </si>
+  <si>
     <t>NCT01692873</t>
   </si>
   <si>
-    <t>NCT02526134</t>
-  </si>
-  <si>
     <t>NCT01853358</t>
   </si>
   <si>
     <t>NCT03686592</t>
   </si>
   <si>
+    <t>NCT02483325</t>
+  </si>
+  <si>
     <t>NCT01939327</t>
   </si>
   <si>
-    <t>NCT02483325</t>
-  </si>
-  <si>
     <t>NCT02623309</t>
   </si>
   <si>
@@ -142,18 +142,18 @@
     <t>NCT04112654</t>
   </si>
   <si>
+    <t>NCT02860793</t>
+  </si>
+  <si>
+    <t>NCT00840684</t>
+  </si>
+  <si>
+    <t>NCT00540956</t>
+  </si>
+  <si>
     <t>NCT00963521</t>
   </si>
   <si>
-    <t>NCT00540956</t>
-  </si>
-  <si>
-    <t>NCT02860793</t>
-  </si>
-  <si>
-    <t>NCT00840684</t>
-  </si>
-  <si>
     <t>NCT00802568</t>
   </si>
   <si>
@@ -166,6 +166,9 @@
     <t>2014-000758-12</t>
   </si>
   <si>
+    <t>2011-002167-23</t>
+  </si>
+  <si>
     <t>2010</t>
   </si>
   <si>
@@ -211,30 +214,30 @@
     <t>Evaluation of Predictive Proteic Profile on Mortality in the Acute Phase of Septic Shock in Cancer Patients</t>
   </si>
   <si>
+    <t>Combination of Continuous Low Doses of Vinorelbine, Cyclophosphamide and Interferon Alpha 2b for Antiangiogenic/Antivascular Effect in Adult Advanced Neoplasm</t>
+  </si>
+  <si>
     <t>Randomized Trial Evaluating the Cryotherapy in the Prevention of Nails Toxicity Induced by Taxotere® in Patient Treated for Breast or Prostate Cancer.</t>
   </si>
   <si>
-    <t>Combination of Continuous Low Doses of Vinorelbine, Cyclophosphamide and Interferon Alpha 2b for Antiangiogenic/Antivascular Effect in Adult Advanced Neoplasm</t>
+    <t>Prospective Evaluation of the Resection Margins and the Ganglionic Status Using a Quality Standard Resection for Adenocarcinoma of the Head of the Pancreas.</t>
   </si>
   <si>
     <t>Intra-ductal Confocal Endomicroscopy for Characterization of Pancreas and Bile Duct Tumor</t>
   </si>
   <si>
-    <t>Prospective Evaluation of the Resection Margins and the Ganglionic Status Using a Quality Standard Resection for Adenocarcinoma of the Head of the Pancreas.</t>
-  </si>
-  <si>
     <t>A Multicenter Prospective Randomized Study Comparing Non Myeloablative (Flu-TBI) and Reduced Intensity (FLU-BU-ATG) Conditioning in Allogenic Transplantation</t>
   </si>
   <si>
+    <t>Adjuvant Gemcitabine Versus NEOadjuvant Gemcitabine/Oxaliplatin Plus Adjuvant Gemcitabine in Resectable PAncreatic Cancer: a Randomized Multicenter Phase III Study</t>
+  </si>
+  <si>
+    <t>Phase II Trial Evaluating the Efficacy of Laying a Biliary Stent for Producing a Heavy Chemotherapy in Unresectable Pancreatic Adenocarcinomas</t>
+  </si>
+  <si>
     <t>Pilot Study Immunomonitoring NK Cells in Patients With Myeloid Malignancies</t>
   </si>
   <si>
-    <t>Adjuvant Gemcitabine Versus NEOadjuvant Gemcitabine/Oxaliplatin Plus Adjuvant Gemcitabine in Resectable PAncreatic Cancer: a Randomized Multicenter Phase III Study</t>
-  </si>
-  <si>
-    <t>Phase II Trial Evaluating the Efficacy of Laying a Biliary Stent for Producing a Heavy Chemotherapy in Unresectable Pancreatic Adenocarcinomas</t>
-  </si>
-  <si>
     <t>Etude Phase I/II d'immunothérapie Par protéine recWT1-A10+AS01B après Greffe allogénique de Cellules Souches</t>
   </si>
   <si>
@@ -244,35 +247,35 @@
     <t>Prospective Randomized Study of PTC and EUS-guided Drainage of the Bile Duct in Patients With Malignant or Post-operative Jaundice After Failure or Impossibility to Perform Endoscopic Retrograde Cholangiography</t>
   </si>
   <si>
+    <t>Double-blind Randomized Multicenter Phase III Study Evaluation of the Efficacy of Hippocampal Avoidance on the Cognitive Toxicity of Whole-brain Radiation Therapy After Surgical Resection of Single Brain Metastasis of Breast Cancer.</t>
+  </si>
+  <si>
+    <t>Phase II" Proof of Concept " Trial Evaluating Anti Cancer Stem Cell Activity of Pre-operative Bevacizumab in Combination With Chemotherapy in Breast Cancer</t>
+  </si>
+  <si>
     <t>Essai de phase II de preuve du concept : Evaluation de l’activité anti-cellules souches cancéreuses du bevacizumab administré en combinaison à la chimiothérapie néoadjuvante dans les cancers du sein</t>
   </si>
   <si>
-    <t>Double-blind Randomized Multicenter Phase III Study Evaluation of the Efficacy of Hippocampal Avoidance on the Cognitive Toxicity of Whole-brain Radiation Therapy After Surgical Resection of Single Brain Metastasis of Breast Cancer.</t>
-  </si>
-  <si>
-    <t>Phase II" Proof of Concept " Trial Evaluating Anti Cancer Stem Cell Activity of Pre-operative Bevacizumab in Combination With Chemotherapy in Breast Cancer</t>
+    <t>Placing Trust in Endoscopic Ultrasonography: Impact on Planning Conformal Radiotherapy of Cancer of the Esophagus and Rectum</t>
   </si>
   <si>
     <t>Research for Prognostic and Predictive Biomarkers of Therapeutic Response in Pancreatic Tumors - PACAomics / IPC 2011-004</t>
   </si>
   <si>
-    <t>Placing Trust in Endoscopic Ultrasonography: Impact on Planning Conformal Radiotherapy of Cancer of the Esophagus and Rectum</t>
-  </si>
-  <si>
     <t>Phase I of Infusion of Selected Donor NK Cells After HLA Identical Allogeneic Stem Cell Transplantation Prepared With Reduced Intensity Conditioning - DLI-NK/IPC 2012-003</t>
   </si>
   <si>
     <t>Psychological Effect of the pancréatectomy: a Feeling of Strangeness</t>
   </si>
   <si>
-    <t>A Phase II Single-arm, Open-label Study to Evaluate the Safety and Efficacy of Combination Lenalidomide (Revlimid®) With Rituximab in Subjets With Relapsed or Refractory Diffuse Large b Cell Non-Hodgkin's Lymphoma.</t>
+    <t>Phase II Study Evaluating the Efficacy of Allogeneic Transplant Conditioning With Adaptive Dose Busulfan Intravenous (Busilvex®) in Patients at High Risk of Carrying Blood Diseases</t>
   </si>
   <si>
     <t>Study of pharmacokinetics of intravenous busulfan (Busilvex ®) in the conditioning allogeneic transplantation in patients with high-risk hematological disease. 
  Etude de pharmacocinétique du Busulfan intra-veineux (Busilvex®) dans le conditionnement d’une greffe allogénique chez des patients à haut risque porteurs d’hémopathie.</t>
   </si>
   <si>
-    <t>Phase II Study Evaluating the Efficacy of Allogeneic Transplant Conditioning With Adaptive Dose Busulfan Intravenous (Busilvex®) in Patients at High Risk of Carrying Blood Diseases</t>
+    <t>A Phase II Single-arm, Open-label Study to Evaluate the Safety and Efficacy of Combination Lenalidomide (Revlimid®) With Rituximab in Subjets With Relapsed or Refractory Diffuse Large b Cell Non-Hodgkin's Lymphoma.</t>
   </si>
   <si>
     <t>COVID-19 EPIDEMIC Reorganisation of Cancer Patient Care: Self- Evaluation of Potential Post-traumatic Stress Disorder</t>
@@ -290,18 +293,22 @@
     <t>Prospective Randomized Evaluation of the Contribution of Low-pressure Intra-abdominal Insufflation for Laparoscopic Colic Resection</t>
   </si>
   <si>
+    <t>Role of PTK-7 in Acute Myeloid Leukemias: Impact of PTK7 Serum Marker and ex Vivo Studies to Decipher the Role of PTK7</t>
+  </si>
+  <si>
+    <t>A phase Ib/II open-label study evaluating safety and efficacy of oral BKM120 in combination with lapatinib in HER2+/PI3K-activated, trastuzumab-resistant locally advanced, recurrent and metastatic breast cancer. 
+ Etude de phase Ib/II évaluant la sécurité et l’efficacité du BKM120 en combinaison avec le lapatinib dans les cancers du sein récidivants, localement avancés ou métastatiques, HER2+ résistants au trastuzumab avec activation de la voie PI3K</t>
+  </si>
+  <si>
+    <t>A PHASE I-II MULTICENTER STUDY OF THE CLORETAZINE-DAUNORUBICIN-ARACYTINE COMBINATION FOR THE TREATMENT OF ACUTE MYELOID LEUKEMIA (AML) WITH UNFAVORABLE CYTOGENETICS</t>
+  </si>
+  <si>
+    <t>Descriptive Study Evaluating the Presence and Function of Natural Killer Cells in Elderly Patients With Acute Myeloid Leukemia in First Remission.</t>
+  </si>
+  <si>
     <t>Pilot Study of Therapeutic Vaccination by Leukemic Blasts in Vitro Differentiated Dendritic Cells From Patients With Acute Myelogenous Leukemia in Complete Remission</t>
   </si>
   <si>
-    <t>Descriptive Study Evaluating the Presence and Function of Natural Killer Cells in Elderly Patients With Acute Myeloid Leukemia in First Remission.</t>
-  </si>
-  <si>
-    <t>Role of PTK-7 in Acute Myeloid Leukemias: Impact of PTK7 Serum Marker and ex Vivo Studies to Decipher the Role of PTK7</t>
-  </si>
-  <si>
-    <t>A PHASE I-II MULTICENTER STUDY OF THE CLORETAZINE-DAUNORUBICIN-ARACYTINE COMBINATION FOR THE TREATMENT OF ACUTE MYELOID LEUKEMIA (AML) WITH UNFAVORABLE CYTOGENETICS</t>
-  </si>
-  <si>
     <t>Pilot Study of Allogeneic Hematopoietic Stem Cell Transplantation Following Reduced Intensity Conditioning in Treating Patients With Multiple Myeloma</t>
   </si>
   <si>
@@ -314,18 +321,18 @@
     <t>PROTEOHSEPS</t>
   </si>
   <si>
+    <t>METRO1</t>
+  </si>
+  <si>
     <t>CRYO1</t>
   </si>
   <si>
-    <t>METRO1</t>
+    <t>MRP</t>
   </si>
   <si>
     <t>EMID</t>
   </si>
   <si>
-    <t>MRP</t>
-  </si>
-  <si>
     <t>ITAC02-01</t>
   </si>
   <si>
@@ -344,27 +351,27 @@
     <t>AVASTEM</t>
   </si>
   <si>
+    <t>FIDUCOR</t>
+  </si>
+  <si>
     <t>PACAomics</t>
   </si>
   <si>
-    <t>FIDUCOR</t>
-  </si>
-  <si>
     <t>DLI-NK</t>
   </si>
   <si>
     <t>REPPSE</t>
   </si>
   <si>
+    <t>BX-PK</t>
+  </si>
+  <si>
+    <t>BX-PK-IPC2013-016</t>
+  </si>
+  <si>
     <t>R2</t>
   </si>
   <si>
-    <t>BX-PK-IPC2013-016</t>
-  </si>
-  <si>
-    <t>BX-PK</t>
-  </si>
-  <si>
     <t>COVID-TRAUMA</t>
   </si>
   <si>
@@ -383,15 +390,18 @@
     <t>LAM-PTK7</t>
   </si>
   <si>
+    <t>PIKHER2</t>
+  </si>
+  <si>
     <t>OTHER</t>
   </si>
   <si>
+    <t>DRUG</t>
+  </si>
+  <si>
     <t>PROCEDURE</t>
   </si>
   <si>
-    <t>DRUG</t>
-  </si>
-  <si>
     <t>DEVICE</t>
   </si>
   <si>
@@ -399,6 +409,9 @@
   </si>
   <si>
     <t>RADIATION</t>
+  </si>
+  <si>
+    <t>DRUG (presumed)</t>
   </si>
 </sst>
 </file>
@@ -756,7 +769,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -802,16 +815,16 @@
         <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="I2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -825,16 +838,16 @@
         <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I3" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -848,16 +861,16 @@
         <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I4" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -871,62 +884,62 @@
         <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I5" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H6" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I6" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -940,16 +953,16 @@
         <v>21</v>
       </c>
       <c r="F8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H8" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I8" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -963,13 +976,16 @@
         <v>22</v>
       </c>
       <c r="F9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G9" t="s">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="H9" t="s">
+        <v>106</v>
       </c>
       <c r="I9" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -983,16 +999,16 @@
         <v>23</v>
       </c>
       <c r="F10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H10" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I10" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1006,16 +1022,13 @@
         <v>24</v>
       </c>
       <c r="F11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G11" t="s">
-        <v>72</v>
-      </c>
-      <c r="H11" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="I11" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1029,16 +1042,16 @@
         <v>25</v>
       </c>
       <c r="F12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H12" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I12" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1052,16 +1065,16 @@
         <v>26</v>
       </c>
       <c r="F13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H13" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I13" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1075,13 +1088,13 @@
         <v>27</v>
       </c>
       <c r="F14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I14" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1091,14 +1104,17 @@
       <c r="B15" t="s">
         <v>12</v>
       </c>
-      <c r="D15" t="s">
-        <v>48</v>
+      <c r="C15" t="s">
+        <v>28</v>
       </c>
       <c r="F15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G15" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="I15" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1109,16 +1125,19 @@
         <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G16" t="s">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="H16" t="s">
+        <v>110</v>
       </c>
       <c r="I16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1128,66 +1147,63 @@
       <c r="B17" t="s">
         <v>12</v>
       </c>
-      <c r="C17" t="s">
-        <v>29</v>
+      <c r="D17" t="s">
+        <v>48</v>
       </c>
       <c r="F17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G17" t="s">
-        <v>78</v>
-      </c>
-      <c r="H17" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="I17" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
         <v>30</v>
       </c>
       <c r="F18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H18" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I18" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C19" t="s">
         <v>31</v>
       </c>
       <c r="F19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H19" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I19" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1201,16 +1217,16 @@
         <v>32</v>
       </c>
       <c r="F20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H20" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I20" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1224,16 +1240,16 @@
         <v>33</v>
       </c>
       <c r="F21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H21" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="I21" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1247,16 +1263,16 @@
         <v>34</v>
       </c>
       <c r="F22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G22" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H22" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I22" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1270,13 +1286,16 @@
         <v>49</v>
       </c>
       <c r="F23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G23" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H23" t="s">
-        <v>114</v>
+        <v>116</v>
+      </c>
+      <c r="I23" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1290,16 +1309,16 @@
         <v>35</v>
       </c>
       <c r="F24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G24" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H24" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I24" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1313,10 +1332,10 @@
         <v>36</v>
       </c>
       <c r="F25" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I25" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1330,16 +1349,16 @@
         <v>37</v>
       </c>
       <c r="F26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G26" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H26" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="I26" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1353,16 +1372,16 @@
         <v>38</v>
       </c>
       <c r="F27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G27" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H27" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I27" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1376,16 +1395,16 @@
         <v>39</v>
       </c>
       <c r="F28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H28" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="I28" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1399,16 +1418,16 @@
         <v>40</v>
       </c>
       <c r="F29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G29" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H29" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I29" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1422,16 +1441,16 @@
         <v>41</v>
       </c>
       <c r="F30" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G30" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H30" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I30" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1445,10 +1464,13 @@
         <v>42</v>
       </c>
       <c r="G31" t="s">
-        <v>91</v>
+        <v>92</v>
+      </c>
+      <c r="H31" t="s">
+        <v>123</v>
       </c>
       <c r="I31" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1458,14 +1480,17 @@
       <c r="B32" t="s">
         <v>12</v>
       </c>
-      <c r="C32" t="s">
-        <v>43</v>
+      <c r="D32" t="s">
+        <v>50</v>
       </c>
       <c r="G32" t="s">
-        <v>92</v>
+        <v>93</v>
+      </c>
+      <c r="H32" t="s">
+        <v>124</v>
       </c>
       <c r="I32" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1476,16 +1501,13 @@
         <v>12</v>
       </c>
       <c r="C33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G33" t="s">
-        <v>93</v>
-      </c>
-      <c r="H33" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="I33" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1496,13 +1518,13 @@
         <v>12</v>
       </c>
       <c r="C34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G34" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I34" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1513,13 +1535,13 @@
         <v>12</v>
       </c>
       <c r="C35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G35" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I35" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1530,13 +1552,30 @@
         <v>12</v>
       </c>
       <c r="C36" t="s">
+        <v>46</v>
+      </c>
+      <c r="G36" t="s">
+        <v>97</v>
+      </c>
+      <c r="I36" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" t="s">
         <v>47</v>
       </c>
-      <c r="G36" t="s">
-        <v>96</v>
-      </c>
-      <c r="I36" t="s">
-        <v>126</v>
+      <c r="G37" t="s">
+        <v>98</v>
+      </c>
+      <c r="I37" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
